--- a/dados_certificados.xlsx
+++ b/dados_certificados.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinica\Desktop\programa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinica\Desktop\certificado\Certificado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Certificados Cursos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
     <t>Joao</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Fernanda</t>
   </si>
   <si>
-    <t>Sansung</t>
-  </si>
-  <si>
     <t>Ford</t>
   </si>
   <si>
@@ -96,13 +90,25 @@
   </si>
   <si>
     <t>Rua Ademar de Barros</t>
+  </si>
+  <si>
+    <t>45424104605</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Alex-JR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-416]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +117,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -125,7 +155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,31 +172,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -186,10 +224,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
@@ -198,73 +232,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="CommandButton1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -300,7 +279,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="pt-BR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -308,7 +287,7 @@
                   <a:ea typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Botão 2</a:t>
+                <a:t>Gerar Certificados</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -588,223 +567,224 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4542410404</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45363</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="4">
-        <v>46014</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4542410404</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45364</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="4">
-        <v>46015</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4542410404</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45365</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="4">
-        <v>46016</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4542410404</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45366</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>46017</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4542410404</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45367</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="4">
-        <v>46018</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4542410404</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45368</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="4">
-        <v>46019</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4542410404</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45369</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <v>46020</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -812,10 +792,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -826,54 +806,33 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Button 2">
-          <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!GerarCertificado">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-    </mc:AlternateContent>
-  </controls>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!GerarCertificados">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/dados_certificados.xlsx
+++ b/dados_certificados.xlsx
@@ -98,7 +98,7 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>Alex-JR</t>
+    <t>Alex Junior Fortunato Sacramento</t>
   </si>
 </sst>
 </file>
@@ -235,14 +235,14 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -567,18 +567,18 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -816,14 +816,14 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>485775</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>

--- a/dados_certificados.xlsx
+++ b/dados_certificados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Nome</t>
   </si>
@@ -77,28 +77,49 @@
     <t>Carga Horária</t>
   </si>
   <si>
-    <t>10hrs</t>
-  </si>
-  <si>
     <t>Nome da Empresa</t>
   </si>
   <si>
     <t>Cipa</t>
   </si>
   <si>
-    <t>Endereço da Empresa</t>
-  </si>
-  <si>
-    <t>Rua Ademar de Barros</t>
-  </si>
-  <si>
     <t>45424104605</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>Alex Junior Fortunato Sacramento</t>
+  </si>
+  <si>
+    <t>Engenheiro</t>
+  </si>
+  <si>
+    <t>Marcos Rogério dos Santos</t>
+  </si>
+  <si>
+    <t>NR-35 TRABALHO EM ALTURA “RECICLAGEM”</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>11 horas</t>
+  </si>
+  <si>
+    <t>12 horas</t>
+  </si>
+  <si>
+    <t>13 horas</t>
+  </si>
+  <si>
+    <t>14 horas</t>
+  </si>
+  <si>
+    <t>15 horas</t>
+  </si>
+  <si>
+    <t>16 horas</t>
+  </si>
+  <si>
+    <t>VIRIDI TECHNOLOGIES LTDA</t>
   </si>
 </sst>
 </file>
@@ -106,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-416]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -172,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,17 +206,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -205,6 +226,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -234,15 +258,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1152525</xdr:colOff>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -567,17 +591,17 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,33 +622,33 @@
         <v>16</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6">
         <v>45363</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -634,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
         <v>45364</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -659,22 +683,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6">
         <v>45365</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -684,22 +708,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>45366</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -709,22 +733,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6">
         <v>45367</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -734,22 +758,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6">
         <v>45368</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -759,22 +783,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6">
         <v>45369</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -815,15 +839,15 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!GerarCertificados">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1152525</xdr:colOff>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>

--- a/dados_certificados.xlsx
+++ b/dados_certificados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinica\Desktop\certificado\Certificado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinica\Desktop\cert\Certificado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1026" r:id="rId4" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!GerarCertificados">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!GerarSlides">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>

--- a/dados_certificados.xlsx
+++ b/dados_certificados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinica\Desktop\cert\Certificado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinica\Desktop\Gerar-Certificado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
